--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="211">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2452,12 +2452,6 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>USER_MENU</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -4787,7 +4781,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4897,56 +4891,47 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="s">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>202</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s" s="86">
         <v>203</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E10" t="s" s="87">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s" s="88">
+        <v>205</v>
+      </c>
+      <c r="G10" t="s" s="89">
+        <v>206</v>
+      </c>
+      <c r="H10" t="s" s="90">
+        <v>207</v>
+      </c>
+      <c r="I10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" t="s">
         <v>199</v>
       </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" t="s" s="86">
-        <v>205</v>
-      </c>
-      <c r="E11" t="s" s="87">
-        <v>206</v>
-      </c>
-      <c r="F11" t="s" s="88">
-        <v>207</v>
-      </c>
-      <c r="G11" t="s" s="89">
-        <v>208</v>
-      </c>
-      <c r="H11" t="s" s="90">
-        <v>209</v>
+      <c r="G11">
+        <f>租户维护菜单!$E$8</f>
+      </c>
+      <c r="H11">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I11" t="s">
         <v>210</v>
@@ -4954,155 +4939,138 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
         <v>199</v>
       </c>
       <c r="G12">
-        <f>租户维护菜单!$E$8</f>
+        <f>租户维护菜单!$E$9</f>
       </c>
       <c r="H12">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
         <v>199</v>
       </c>
       <c r="G13">
-        <f>租户维护菜单!$E$9</f>
+        <f>租户维护菜单!$E$10</f>
       </c>
       <c r="H13">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
         <v>199</v>
       </c>
       <c r="G14">
-        <f>租户维护菜单!$E$10</f>
+        <f>租户维护菜单!$E$11</f>
       </c>
       <c r="H14">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
         <v>199</v>
       </c>
       <c r="G15">
-        <f>租户维护菜单!$E$11</f>
+        <f>租户维护菜单!$E$12</f>
       </c>
       <c r="H15">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
         <v>199</v>
       </c>
       <c r="G16">
-        <f>租户维护菜单!$E$12</f>
+        <f>租户维护菜单!$E$13</f>
       </c>
       <c r="H16">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
         <v>199</v>
       </c>
       <c r="G17">
-        <f>租户维护菜单!$E$13</f>
+        <f>租户维护菜单!$E$14</f>
       </c>
       <c r="H17">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
         <v>199</v>
       </c>
       <c r="G18">
-        <f>租户维护菜单!$E$14</f>
+        <f>租户维护菜单!$E$15</f>
       </c>
       <c r="H18">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
         <v>199</v>
       </c>
       <c r="G19">
-        <f>租户维护菜单!$E$15</f>
+        <f>租户维护菜单!$E$16</f>
       </c>
       <c r="H19">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20">
-        <f>租户维护菜单!$E$16</f>
-      </c>
-      <c r="H20">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="228">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2073,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>help_type</t>
+  </si>
+  <si>
+    <t>help_value</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2109,6 +2121,12 @@
     <t>api</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2166,9 +2184,15 @@
     <t>租户维护-新建</t>
   </si>
   <si>
+    <t>Tenant maintenance - New</t>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.button.create</t>
   </si>
   <si>
@@ -2184,9 +2208,15 @@
     <t>租户维护-编辑</t>
   </si>
   <si>
+    <t>Tenant maintenance - Edit</t>
+  </si>
+  <si>
     <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.button.edit</t>
   </si>
   <si>
+    <t>disabled</t>
+  </si>
+  <si>
     <t>iam_menu-13</t>
   </si>
   <si>
@@ -2196,6 +2226,9 @@
     <t>租户维护-创建集</t>
   </si>
   <si>
+    <t>Tenant maintenance - create set</t>
+  </si>
+  <si>
     <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.create</t>
   </si>
   <si>
@@ -2208,6 +2241,9 @@
     <t>租户维护默认权限集</t>
   </si>
   <si>
+    <t>Tenant maintains default permission set</t>
+  </si>
+  <si>
     <t>form</t>
   </si>
   <si>
@@ -2223,6 +2259,9 @@
     <t>租户维护-删除集</t>
   </si>
   <si>
+    <t>Tenant maintenance - delete set</t>
+  </si>
+  <si>
     <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.delete</t>
   </si>
   <si>
@@ -2235,6 +2274,9 @@
     <t>租户维护-查询集</t>
   </si>
   <si>
+    <t>Tenant maintenance - query set</t>
+  </si>
+  <si>
     <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.query</t>
   </si>
   <si>
@@ -2250,6 +2292,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -2313,7 +2358,7 @@
     <t>#h_parent_role_assign_level</t>
   </si>
   <si>
-    <t>h_parent_role_assign_level_val</t>
+    <t>#h_parent_role_assign_level_val</t>
   </si>
   <si>
     <t>is_enabled</t>
@@ -2343,6 +2388,9 @@
     <t>tpl_role_name:en_US</t>
   </si>
   <si>
+    <t>role_hierarchy</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -2355,7 +2403,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>abcf</t>
+    <t/>
   </si>
   <si>
     <t>organization</t>
@@ -2452,6 +2500,9 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>Hzero menu label</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -2486,7 +2537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2803,6 +2854,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3038,7 +3094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3164,6 +3220,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3749,7 +3806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3856,458 +3913,527 @@
       <c r="Y7" t="s">
         <v>74</v>
       </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="T8" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <f>租户维护菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC9" t="s">
         <v>92</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
         <v>97</v>
       </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <f>租户维护菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <f>租户维护菜单!$E$10</f>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <f>租户维护菜单!$E$10</f>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="U12" t="s">
+        <v>122</v>
       </c>
       <c r="V12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <f>租户维护菜单!$E$10</f>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <f>租户维护菜单!$E$10</f>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <f>租户维护菜单!$E$10</f>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <f>租户维护菜单!$E$10</f>
       </c>
       <c r="L16" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4317,7 +4443,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4356,96 +4482,168 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>133</v>
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F8">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F10">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F11">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F12">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F13">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F14">
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4494,10 +4692,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4512,114 +4710,132 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>154</v>
-      </c>
-      <c r="O7" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="O7" t="s" s="76">
+        <v>170</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="R7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="S7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="T7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>161</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="W7" t="s" s="77">
+        <v>177</v>
       </c>
       <c r="X7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y7" t="s">
-        <v>164</v>
+        <v>179</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="V8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -4630,33 +4846,42 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" t="s" s="77">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s" s="78">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s" s="78">
+        <v>188</v>
+      </c>
+      <c r="E10" t="s" s="79">
         <v>54</v>
       </c>
-      <c r="F10" t="s" s="79">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s" s="80">
-        <v>174</v>
+      <c r="F10" t="s" s="80">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s" s="81">
+        <v>190</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J10" t="s" s="81">
-        <v>177</v>
+        <v>192</v>
+      </c>
+      <c r="J10" t="s" s="82">
+        <v>193</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F11">
         <f>角色权限!$E$8</f>
@@ -4665,18 +4890,27 @@
         <f>租户维护菜单!$E$11</f>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F12">
         <f>角色权限!$E$8</f>
@@ -4685,18 +4919,27 @@
         <f>租户维护菜单!$E$12</f>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J12" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F13">
         <f>角色权限!$E$8</f>
@@ -4705,18 +4948,27 @@
         <f>租户维护菜单!$E$13</f>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J13" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F14">
         <f>角色权限!$E$8</f>
@@ -4725,18 +4977,27 @@
         <f>租户维护菜单!$E$14</f>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F15">
         <f>角色权限!$E$8</f>
@@ -4745,18 +5006,27 @@
         <f>租户维护菜单!$E$15</f>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F16">
         <f>角色权限!$E$8</f>
@@ -4765,13 +5035,22 @@
         <f>租户维护菜单!$E$16</f>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +5060,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4820,75 +5099,87 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>188</v>
-      </c>
-      <c r="E7" t="s" s="83">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s" s="83">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
-        <v>189</v>
-      </c>
-      <c r="G7" t="s" s="85">
-        <v>177</v>
+      <c r="F7" t="s" s="85">
+        <v>205</v>
+      </c>
+      <c r="G7" t="s" s="86">
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>212</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="J8" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -4899,33 +5190,39 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" t="s" s="86">
-        <v>203</v>
-      </c>
-      <c r="E10" t="s" s="87">
-        <v>204</v>
-      </c>
-      <c r="F10" t="s" s="88">
-        <v>205</v>
-      </c>
-      <c r="G10" t="s" s="89">
-        <v>206</v>
-      </c>
-      <c r="H10" t="s" s="90">
-        <v>207</v>
+        <v>219</v>
+      </c>
+      <c r="D10" t="s" s="87">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s" s="88">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s" s="89">
+        <v>222</v>
+      </c>
+      <c r="G10" t="s" s="90">
+        <v>223</v>
+      </c>
+      <c r="H10" t="s" s="91">
+        <v>224</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>225</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G11">
         <f>租户维护菜单!$E$8</f>
@@ -4934,15 +5231,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I11" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <f>租户维护菜单!$E$9</f>
@@ -4951,15 +5254,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G13">
         <f>租户维护菜单!$E$10</f>
@@ -4968,15 +5277,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G14">
         <f>租户维护菜单!$E$11</f>
@@ -4985,15 +5300,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G15">
         <f>租户维护菜单!$E$12</f>
@@ -5002,15 +5323,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G16">
         <f>租户维护菜单!$E$13</f>
@@ -5019,15 +5346,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G17">
         <f>租户维护菜单!$E$14</f>
@@ -5036,15 +5369,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I17" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G18">
         <f>租户维护菜单!$E$15</f>
@@ -5053,15 +5392,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G19">
         <f>租户维护菜单!$E$16</f>
@@ -5070,7 +5415,13 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/iam_tenant/hzero-tenant-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="270">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2124,385 +2124,511 @@
     <t>now</t>
   </si>
   <si>
+    <t>24640</t>
+  </si>
+  <si>
+    <t>iam_menu-9</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant</t>
+  </si>
+  <si>
+    <t>租户管理</t>
+  </si>
+  <si>
+    <t>Tenant Mgr</t>
+  </si>
+  <si>
+    <t>ZHWH</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>data-platform</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant</t>
+  </si>
+  <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain</t>
+  </si>
+  <si>
+    <t>租户维护</t>
+  </si>
+  <si>
+    <t>Tenant maintain</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t>/hiam/tenants</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain</t>
+  </si>
+  <si>
+    <t>STATIC_TEXT</t>
+  </si>
+  <si>
+    <t>HPFM.TEMPLATE_CONFIG</t>
+  </si>
+  <si>
+    <t>iam_menu-11</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.list.button.create</t>
+  </si>
+  <si>
+    <t>租户维护-新建</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.list.button.create</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>9259</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.list.button.edit</t>
+  </si>
+  <si>
+    <t>租户维护-编辑</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.list.button.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.list.button.sub-table</t>
+  </si>
+  <si>
+    <t>租户维护-启用数据分表</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.list.button.sub-table</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.auto-create</t>
+  </si>
+  <si>
+    <t>租户维护-自动创建</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.auto-create</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.close</t>
+  </si>
+  <si>
+    <t>分表规则-禁用</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.close</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-main</t>
+  </si>
+  <si>
+    <t>分表规则-复制数据至主表</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-main</t>
+  </si>
+  <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-main-row</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-main-row</t>
+  </si>
+  <si>
+    <t>iam_menu-18</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-sub</t>
+  </si>
+  <si>
+    <t>分表规则-复制数据至分表</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-sub</t>
+  </si>
+  <si>
+    <t>iam_menu-19</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-sub-row</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.copy-to-sub-row</t>
+  </si>
+  <si>
+    <t>iam_menu-20</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.open</t>
+  </si>
+  <si>
+    <t>分表规则-启用</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.open</t>
+  </si>
+  <si>
+    <t>iam_menu-21</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.reload</t>
+  </si>
+  <si>
+    <t>分表规则-刷新</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.reload</t>
+  </si>
+  <si>
+    <t>iam_menu-22</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.viewScript</t>
+  </si>
+  <si>
+    <t>租户维护-查看脚本</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.sub-table.-tenantId.button.viewScript</t>
+  </si>
+  <si>
+    <t>iam_menu-23</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.ps.create</t>
+  </si>
+  <si>
+    <t>租户维护-创建集</t>
+  </si>
+  <si>
+    <t>Tenant maintenance - create set</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.create</t>
+  </si>
+  <si>
+    <t>iam_menu-24</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.ps.default</t>
+  </si>
+  <si>
+    <t>租户维护默认权限集</t>
+  </si>
+  <si>
+    <t>Tenant maintains default permission set</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-25</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.ps.delete</t>
+  </si>
+  <si>
+    <t>租户维护-删除集</t>
+  </si>
+  <si>
+    <t>Tenant maintenance - delete set</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.delete</t>
+  </si>
+  <si>
+    <t>iam_menu-26</t>
+  </si>
+  <si>
+    <t>hzero.site.sys.tenant.tenant-maintain.ps.query</t>
+  </si>
+  <si>
+    <t>租户维护-查询集</t>
+  </si>
+  <si>
+    <t>Tenant maintenance - query set</t>
+  </si>
+  <si>
+    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.query</t>
+  </si>
+  <si>
+    <t>菜单权限</t>
+  </si>
+  <si>
+    <t>iam_menu_permission</t>
+  </si>
+  <si>
+    <t>#menu_id</t>
+  </si>
+  <si>
+    <t>#permission_code</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-8</t>
+  </si>
+  <si>
+    <t>hzero-iam.iam-tenant-site-level.pagingTenants</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>hzero-iam.iam-tenant-site-level.selectTenantByUserId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>hzero-iam.iam-tenant-site-level.selectUsersTenant</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>hzero-iam.tenant-table-split.queryTenantProcess</t>
+  </si>
+  <si>
+    <t>73350811193057280</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>hzero-iam.tenant-table-split.queryTenantSplitTableDescribe</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>hzero-message.notice-site-level.list</t>
+  </si>
+  <si>
+    <t>32790</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>hzero-report.report-site-level.getReportData</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>role_hierarchy</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>134354801085124640</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>Hzero menu label</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
-    <t>iam_menu-9</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant</t>
-  </si>
-  <si>
-    <t>租户管理</t>
-  </si>
-  <si>
-    <t>Tenant Mgr</t>
-  </si>
-  <si>
-    <t>ZHWH</t>
-  </si>
-  <si>
-    <t>dir</t>
-  </si>
-  <si>
-    <t>data-platform</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant</t>
-  </si>
-  <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain</t>
-  </si>
-  <si>
-    <t>租户维护</t>
-  </si>
-  <si>
-    <t>Tenant maintain</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>workflow</t>
-  </si>
-  <si>
-    <t>/hiam/tenants</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain</t>
-  </si>
-  <si>
-    <t>iam_menu-11</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.button.create</t>
-  </si>
-  <si>
-    <t>租户维护-新建</t>
-  </si>
-  <si>
-    <t>Tenant maintenance - New</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.button.create</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain.hiam.tenants.button.edit</t>
-  </si>
-  <si>
-    <t>租户维护-编辑</t>
-  </si>
-  <si>
-    <t>Tenant maintenance - Edit</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.hiam.tenants.button.edit</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain.ps.create</t>
-  </si>
-  <si>
-    <t>租户维护-创建集</t>
-  </si>
-  <si>
-    <t>Tenant maintenance - create set</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.create</t>
-  </si>
-  <si>
-    <t>iam_menu-14</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain.ps.default</t>
-  </si>
-  <si>
-    <t>租户维护默认权限集</t>
-  </si>
-  <si>
-    <t>Tenant maintains default permission set</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-15</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain.ps.delete</t>
-  </si>
-  <si>
-    <t>租户维护-删除集</t>
-  </si>
-  <si>
-    <t>Tenant maintenance - delete set</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.delete</t>
-  </si>
-  <si>
-    <t>iam_menu-16</t>
-  </si>
-  <si>
-    <t>hzero.site.sys.tenant.tenant-maintain.ps.query</t>
-  </si>
-  <si>
-    <t>租户维护-查询集</t>
-  </si>
-  <si>
-    <t>Tenant maintenance - query set</t>
-  </si>
-  <si>
-    <t>hzero.site.sys|hzero.site.sys.tenant|hzero.site.sys.tenant.tenant-maintain|hzero.site.sys.tenant.tenant-maintain.ps.query</t>
-  </si>
-  <si>
-    <t>菜单权限</t>
-  </si>
-  <si>
-    <t>iam_menu_permission</t>
-  </si>
-  <si>
-    <t>#menu_id</t>
-  </si>
-  <si>
-    <t>#permission_code</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-8</t>
-  </si>
-  <si>
-    <t>hzero-iam.iam-tenant-site-level.pagingTenants</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-9</t>
-  </si>
-  <si>
-    <t>hzero-iam.iam-tenant-site-level.selectTenantByUserId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-10</t>
-  </si>
-  <si>
-    <t>hzero-iam.iam-tenant-site-level.selectUsersTenant</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-11</t>
-  </si>
-  <si>
-    <t>hzero-iam.tenant-site-level.assignTenantToUser</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-12</t>
-  </si>
-  <si>
-    <t>hzero-iam.tenant-site-level.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-13</t>
-  </si>
-  <si>
-    <t>hzero-iam.tenant-site-level.selectTenant</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-14</t>
-  </si>
-  <si>
-    <t>hzero-iam.tenant-site-level.update</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>iam_role</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>fd_level</t>
-  </si>
-  <si>
-    <t>h_inherit_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_assign_level</t>
-  </si>
-  <si>
-    <t>#h_parent_role_assign_level_val</t>
-  </si>
-  <si>
-    <t>is_enabled</t>
-  </si>
-  <si>
-    <t>is_modified</t>
-  </si>
-  <si>
-    <t>is_enable_forbidden</t>
-  </si>
-  <si>
-    <t>is_built_in</t>
-  </si>
-  <si>
-    <t>is_assignable</t>
-  </si>
-  <si>
-    <t>h_inherit_level_path</t>
-  </si>
-  <si>
-    <t>#created_by_tenant_id</t>
-  </si>
-  <si>
-    <t>tpl_role_name:zh_CN</t>
-  </si>
-  <si>
-    <t>tpl_role_name:en_US</t>
-  </si>
-  <si>
-    <t>role_hierarchy</t>
-  </si>
-  <si>
-    <t>iam_role-8</t>
-  </si>
-  <si>
-    <t>平台管理员</t>
-  </si>
-  <si>
-    <t>Site Administrator</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>角色权限</t>
-  </si>
-  <si>
-    <t>iam_role_permission</t>
-  </si>
-  <si>
-    <t>#role_id</t>
-  </si>
-  <si>
-    <t>#permission_id</t>
-  </si>
-  <si>
-    <t>h_create_flag</t>
-  </si>
-  <si>
-    <t>h_inherit_flag</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>iam_role_permission-11</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>iam_role_permission-12</t>
-  </si>
-  <si>
-    <t>iam_role_permission-13</t>
-  </si>
-  <si>
-    <t>iam_role_permission-14</t>
-  </si>
-  <si>
-    <t>iam_role_permission-15</t>
-  </si>
-  <si>
-    <t>iam_role_permission-16</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>HZERO菜单标签</t>
-  </si>
-  <si>
-    <t>Hzero menu label</t>
+    <t>iam_label-9</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TEST_MENU1</t>
+  </si>
+  <si>
+    <t>30625</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>TEST_MENU2</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>TEST_MENU3</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3806,7 +3932,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4004,8 +4130,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>租户维护菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -4063,8 +4190,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>租户维护菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -4099,34 +4227,44 @@
       <c r="X10" t="s">
         <v>88</v>
       </c>
+      <c r="Z10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
       <c r="AB10" t="s">
         <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -4135,7 +4273,7 @@
         <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q11" t="s">
         <v>85</v>
@@ -4144,13 +4282,13 @@
         <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T11" t="s">
         <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X11" t="s">
         <v>88</v>
@@ -4159,30 +4297,34 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4191,7 +4333,7 @@
         <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q12" t="s">
         <v>85</v>
@@ -4200,16 +4342,13 @@
         <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T12" t="s">
         <v>85</v>
       </c>
-      <c r="U12" t="s">
-        <v>122</v>
-      </c>
       <c r="V12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X12" t="s">
         <v>88</v>
@@ -4218,7 +4357,7 @@
         <v>91</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -4232,23 +4371,30 @@
         <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
         <v>88</v>
       </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
       <c r="Q13" t="s">
         <v>85</v>
       </c>
@@ -4256,13 +4402,13 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
         <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="X13" t="s">
         <v>88</v>
@@ -4271,30 +4417,34 @@
         <v>91</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
         <v>128</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>129</v>
       </c>
-      <c r="G14" t="s">
-        <v>130</v>
-      </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
         <v>85</v>
@@ -4303,7 +4453,7 @@
         <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="Q14" t="s">
         <v>85</v>
@@ -4312,13 +4462,13 @@
         <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
         <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="X14" t="s">
         <v>88</v>
@@ -4327,37 +4477,44 @@
         <v>91</v>
       </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
         <v>88</v>
       </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
       <c r="Q15" t="s">
         <v>85</v>
       </c>
@@ -4365,13 +4522,13 @@
         <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T15" t="s">
         <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="X15" t="s">
         <v>88</v>
@@ -4380,37 +4537,44 @@
         <v>91</v>
       </c>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>88</v>
       </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
       <c r="Q16" t="s">
         <v>85</v>
       </c>
@@ -4418,13 +4582,13 @@
         <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="T16" t="s">
         <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="X16" t="s">
         <v>88</v>
@@ -4433,7 +4597,586 @@
         <v>91</v>
       </c>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>145</v>
+      </c>
+      <c r="T18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" t="s">
+        <v>148</v>
+      </c>
+      <c r="T19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
+        <v>117</v>
+      </c>
+      <c r="X20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" t="s">
+        <v>156</v>
+      </c>
+      <c r="T21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" t="s">
+        <v>160</v>
+      </c>
+      <c r="T22" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22" t="s">
+        <v>117</v>
+      </c>
+      <c r="X22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" t="s">
+        <v>165</v>
+      </c>
+      <c r="T23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" t="s">
+        <v>90</v>
+      </c>
+      <c r="X23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" t="s">
+        <v>171</v>
+      </c>
+      <c r="T24" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" t="s">
+        <v>90</v>
+      </c>
+      <c r="X24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>85</v>
+      </c>
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>176</v>
+      </c>
+      <c r="T25" t="s">
+        <v>85</v>
+      </c>
+      <c r="V25" t="s">
+        <v>90</v>
+      </c>
+      <c r="X25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" t="s">
+        <v>181</v>
+      </c>
+      <c r="T26" t="s">
+        <v>85</v>
+      </c>
+      <c r="V26" t="s">
+        <v>90</v>
+      </c>
+      <c r="X26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4482,22 +5225,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -4508,13 +5251,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8">
-        <f>租户维护菜单!$E$14</f>
+        <v>187</v>
+      </c>
+      <c r="F8" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -4523,18 +5267,19 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9">
-        <f>租户维护菜单!$E$14</f>
+        <v>190</v>
+      </c>
+      <c r="F9" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -4543,18 +5288,19 @@
         <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10">
-        <f>租户维护菜单!$E$14</f>
+        <v>192</v>
+      </c>
+      <c r="F10" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -4563,18 +5309,19 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11">
-        <f>租户维护菜单!$E$14</f>
+        <v>194</v>
+      </c>
+      <c r="F11" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -4583,18 +5330,19 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12">
-        <f>租户维护菜单!$E$14</f>
+        <v>197</v>
+      </c>
+      <c r="F12" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -4603,18 +5351,19 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13">
-        <f>租户维护菜单!$E$14</f>
+        <v>199</v>
+      </c>
+      <c r="F13" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -4623,18 +5372,19 @@
         <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14">
-        <f>租户维护菜单!$E$14</f>
+        <v>202</v>
+      </c>
+      <c r="F14" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -4643,7 +5393,7 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4653,7 +5403,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4692,10 +5442,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4710,58 +5460,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="O7" t="s" s="76">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="R7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="S7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="T7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="W7" t="s" s="77">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="X7" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="Y7" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="Z7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -4772,19 +5522,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -4799,7 +5546,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -4820,10 +5567,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="V8" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -4835,7 +5582,7 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
@@ -4846,211 +5593,37 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s" s="78">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F10" t="s" s="80">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s" s="81">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s" s="82">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
         <v>77</v>
       </c>
       <c r="M10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G11">
-        <f>租户维护菜单!$E$11</f>
-      </c>
-      <c r="H11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G12">
-        <f>租户维护菜单!$E$12</f>
-      </c>
-      <c r="H12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I12" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G13">
-        <f>租户维护菜单!$E$13</f>
-      </c>
-      <c r="H13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G14">
-        <f>租户维护菜单!$E$14</f>
-      </c>
-      <c r="H14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" t="s">
-        <v>196</v>
-      </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G15">
-        <f>租户维护菜单!$E$15</f>
-      </c>
-      <c r="H15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I15" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G16">
-        <f>租户维护菜单!$E$16</f>
-      </c>
-      <c r="H16" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5060,7 +5633,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5099,43 +5672,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s" s="86">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O7" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -5146,25 +5719,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -5179,249 +5752,345 @@
         <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" t="s" s="87">
-        <v>220</v>
-      </c>
-      <c r="E10" t="s" s="88">
-        <v>221</v>
-      </c>
-      <c r="F10" t="s" s="89">
-        <v>222</v>
-      </c>
-      <c r="G10" t="s" s="90">
-        <v>223</v>
-      </c>
-      <c r="H10" t="s" s="91">
-        <v>224</v>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11">
-        <f>租户维护菜单!$E$8</f>
-      </c>
-      <c r="H11">
-        <f>菜单标签数据!$E$8</f>
+        <v>258</v>
+      </c>
+      <c r="G11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
         <v>91</v>
       </c>
-      <c r="K11" t="s">
-        <v>92</v>
+      <c r="Q11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12">
-        <f>租户维护菜单!$E$9</f>
-      </c>
-      <c r="H12">
-        <f>菜单标签数据!$E$8</f>
+        <v>260</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13">
-        <f>租户维护菜单!$E$10</f>
-      </c>
-      <c r="H13">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I13" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
+      <c r="Q12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14">
-        <f>租户维护菜单!$E$11</f>
-      </c>
-      <c r="H14">
-        <f>菜单标签数据!$E$8</f>
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s" s="87">
+        <v>262</v>
+      </c>
+      <c r="E14" t="s" s="88">
+        <v>263</v>
+      </c>
+      <c r="F14" t="s" s="89">
+        <v>264</v>
+      </c>
+      <c r="G14" t="s" s="90">
+        <v>265</v>
+      </c>
+      <c r="H14" t="s" s="91">
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15">
-        <f>租户维护菜单!$E$12</f>
-      </c>
-      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="G15" t="n">
+        <f>租户维护菜单!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="J15" t="s">
         <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16">
-        <f>租户维护菜单!$E$13</f>
-      </c>
-      <c r="H16">
+        <v>247</v>
+      </c>
+      <c r="G16" t="n">
+        <f>租户维护菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="J16" t="s">
         <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17">
-        <f>租户维护菜单!$E$14</f>
-      </c>
-      <c r="H17">
+        <v>247</v>
+      </c>
+      <c r="G17" t="n">
+        <f>租户维护菜单!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="J17" t="s">
         <v>91</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18">
-        <f>租户维护菜单!$E$15</f>
-      </c>
-      <c r="H18">
+        <v>247</v>
+      </c>
+      <c r="G18" t="n">
+        <f>租户维护菜单!$E$24</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19">
-        <f>租户维护菜单!$E$16</f>
-      </c>
-      <c r="H19">
+        <v>247</v>
+      </c>
+      <c r="G19" t="n">
+        <f>租户维护菜单!$E$25</f>
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="J19" t="s">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" t="n">
+        <f>租户维护菜单!$E$26</f>
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" t="n">
+        <f>租户维护菜单!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
